--- a/biology/Zoologie/Erotylidae/Erotylidae.xlsx
+++ b/biology/Zoologie/Erotylidae/Erotylidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Erotylidae forment une famille d'insectes de l'ordre des coléoptères.
 </t>
@@ -511,9 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille a été décrite pour la première fois en 1802 par Pierre André Latreille (1762-1833)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille a été décrite pour la première fois en 1802 par Pierre André Latreille (1762-1833).
 </t>
         </is>
       </c>
@@ -542,15 +556,17 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon ITIS      (23 mars 2015)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (23 mars 2015) :
 sous-famille Dacninae Gistel, 1856
 sous-famille Encaustinae Crotch, 1876
 sous-famille Erotylinae Latreille, 1802
 sous-famille Megalodacninae Sen Gupta, 1969
 sous-famille Tritominae Curtis, 1834
-Selon Paleobiology Database                   (23 mars 2015)[2] :
+Selon Paleobiology Database                   (23 mars 2015) :
 sous-famille Dacninae
 sous-famille Encaustinae
 genre Engis
@@ -586,9 +602,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (23 mars 2015)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (23 mars 2015) :
 genre Dacne
 genre Gibbifer
 genre Haematochiton
@@ -600,7 +618,7 @@
 genre Pseudischyrus
 genre Triplax
 genre Tritoma
-Selon NCBI  (23 mars 2015)[4] :
+Selon NCBI  (23 mars 2015) :
 genre Aegithus
 genre Aulacochilus
 genre Coptengis
